--- a/数据整理/stocks/A股/上证主板/603730-岱美股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603730-岱美股份.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>11.93</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>89.54</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>5.56</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6633</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>3</v>
       </c>
     </row>
@@ -525,7 +545,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -546,15 +566,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -576,15 +606,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>15.42</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>89.53</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2.96</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4564</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>9</v>
       </c>
     </row>
@@ -594,26 +634,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>009835</t>
+          <t>519651</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>融通新能源汽车主题精选灵活配置混合C</t>
+          <t>银河转型增长主题灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>89.53</t>
+          <t>6.97</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2.96</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>9</v>
+          <t>89.21</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2572</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -622,26 +672,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>519651</t>
+          <t>009835</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>银河转型增长主题灵活配置混合</t>
+          <t>融通新能源汽车主题精选灵活配置混合C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>89.21</t>
+          <t>2.15</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3.69</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>10</v>
+          <t>89.53</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0636</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/603730-岱美股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603730-岱美股份.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -707,4 +708,212 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002624</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发优企精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>24.96</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2330</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001182</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达安心回馈混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>60.47</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>39.21</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8284</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000747</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发逆向策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>84.82</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0624</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010021</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发优企精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603730-岱美股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603730-岱美股份.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -916,4 +917,250 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>011866</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发价值增长混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>32.44</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>59.63</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0413</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011867</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发价值增长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>59.63</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0443</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008353</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>泰达宏利消费行业量化精选混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.38</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0270</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>210002</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>金鹰红利价值混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>74.64</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0263</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008354</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>泰达宏利消费行业量化精选混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.38</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603730-岱美股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603730-岱美股份.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1163,4 +1164,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.14</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.13</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.66</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603730-岱美股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603730-岱美股份.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1172,7 +1173,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1183,17 +1184,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1203,14 +1224,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>011866</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发价值增长混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>36.00</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.2608</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>5</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.14</v>
       </c>
     </row>
     <row r="3">
@@ -1219,14 +1262,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.13</v>
+          <t>002624</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发优企精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>12.55</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.91</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9927</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -1235,14 +1300,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.78</v>
+          <t>270025</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发行业领先混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>13.07</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.42</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8391</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -1251,13 +1338,341 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>501070</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发睿阳三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>12.90</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>53.61</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6089</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000747</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发逆向策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0860</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011867</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发价值增长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0710</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>210002</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>金鹰红利价值混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>78.72</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0296</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010021</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发优企精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.91</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>960001</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发行业领先混合H</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.42</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>9</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.14</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.13</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>1</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.66</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603730-岱美股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603730-岱美股份.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1571,7 +1572,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1582,17 +1583,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1602,14 +1623,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>011866</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发价值增长混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>18.06</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.01</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8633</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>9</v>
-      </c>
-      <c r="D2" t="n">
-        <v>4.9</v>
       </c>
     </row>
     <row r="3">
@@ -1618,14 +1661,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>5</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.14</v>
+          <t>002624</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发优企精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>12.98</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.40</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7373</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -1634,14 +1699,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>4</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.13</v>
+          <t>270025</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发行业领先混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>11.11</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5111</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -1650,14 +1737,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>3</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.78</v>
+          <t>960001</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发行业领先混合H</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>11.11</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5111</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -1666,13 +1775,357 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>501070</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发睿阳三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.06</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>50.14</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3586</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>210002</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>金鹰红利价值混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>69.18</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0479</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011867</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发价值增长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.01</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0387</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008353</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>泰达宏利消费行业量化精选混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.25</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010021</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发优企精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.40</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008354</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>泰达宏利消费行业量化精选混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.25</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>10</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.14</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.13</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>1</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.66</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603730-岱美股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603730-岱美股份.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2008,7 +2009,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2019,17 +2020,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2039,14 +2060,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>011866</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发价值增长混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>18.32</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9233</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>10</v>
-      </c>
-      <c r="D2" t="n">
-        <v>3.1</v>
       </c>
     </row>
     <row r="3">
@@ -2055,14 +2098,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+          <t>002624</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发优企精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>13.57</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8590</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>9</v>
-      </c>
-      <c r="D3" t="n">
-        <v>4.9</v>
       </c>
     </row>
     <row r="4">
@@ -2071,14 +2136,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>5</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.14</v>
+          <t>270025</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发行业领先混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>11.34</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5885</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -2087,14 +2174,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>4</v>
-      </c>
-      <c r="D5" t="n">
-        <v>2.13</v>
+          <t>960001</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发行业领先混合H</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>11.34</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5885</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -2103,14 +2212,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>3</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.78</v>
+          <t>501070</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发睿阳三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.40</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>53.33</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3752</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -2119,13 +2250,449 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>200010</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>长城双动力混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1111</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000747</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发逆向策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0490</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011867</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发价值增长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0433</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>210002</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>金鹰红利价值混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>71.65</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0425</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>012005</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>信达澳银恒盛混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>31.58</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010021</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>广发优企精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>012006</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>信达澳银恒盛混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>31.58</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011758</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>广发逆向策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>13</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>10</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>9</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4.9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.14</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2.13</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>3</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>1</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.66</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603730-岱美股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603730-岱美股份.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D2" t="n">
-        <v>3.6</v>
+        <v>3.47</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D3" t="n">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="n">
-        <v>4.9</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D5" t="n">
-        <v>1.14</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>2.13</v>
+        <v>1.14</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
-        <v>0.78</v>
+        <v>2.13</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>3</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>1</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.66</v>
       </c>
     </row>
@@ -600,6 +617,632 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>011866</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发价值增长混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>15.73</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9611</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002624</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发优企精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>11.48</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.90</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9069</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>270025</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发行业领先混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>9.95</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6338</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>501070</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发睿阳三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.62</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>51.01</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4290</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011427</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发价值驱动混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1655</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>200010</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>长城双动力混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0977</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>015561</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>长城双动力混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0808</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>000747</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发逆向策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0518</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>210002</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>金鹰红利价值混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>61.62</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0486</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011867</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>广发价值增长混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0440</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011428</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>广发价值驱动混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0263</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>016563</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>金鹰红利价值混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>61.62</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010021</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>广发优企精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7.90</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011758</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>广发逆向策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>960001</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>广发行业领先混合H</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1149,7 +1792,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1585,7 +2228,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1983,7 +2626,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2229,7 +2872,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2437,7 +3080,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2607,7 +3250,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/603730-岱美股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603730-岱美股份.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D2" t="n">
-        <v>3.47</v>
+        <v>3.58</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D3" t="n">
-        <v>3.6</v>
+        <v>3.47</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D4" t="n">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="n">
-        <v>4.9</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D6" t="n">
-        <v>1.14</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
-        <v>2.13</v>
+        <v>1.14</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
-        <v>0.78</v>
+        <v>2.13</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>3</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>1</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>0.66</v>
       </c>
     </row>
@@ -616,7 +633,575 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>161609</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>融通动力先锋混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>11.93</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.54</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6633</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>011866</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发价值增长混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>17.28</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0662</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002624</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发优企精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>13.10</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.67</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0048</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>270025</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发行业领先混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>10.94</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.43</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7034</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>501070</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发睿阳三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>50.25</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.96</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4823</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011427</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发价值驱动混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1812</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000747</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发逆向策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0581</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011867</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发价值增长混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0481</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011428</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发价值驱动混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0285</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010021</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发优企精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.67</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>960001</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>广发行业领先混合H</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.43</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011758</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>广发逆向策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1242,7 +1827,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1792,7 +2377,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2228,7 +2813,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2626,7 +3211,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2872,7 +3457,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3080,7 +3665,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3248,98 +3833,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>161609</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>融通动力先锋混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>11.93</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>89.54</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>5.56</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.6633</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>